--- a/biology/Botanique/Palmehuset/Palmehuset.xlsx
+++ b/biology/Botanique/Palmehuset/Palmehuset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Palmehuset, littéralement la « Maison des Palmiers » en danois, est une serre du jardin botanique de Copenhague, au Danemark. Elle a été construite en 1874 d'après un dessin réalisé en collaboration avec l'architecte F. E. Kern par Jacob Christian Jacobsen, le fondateur et mécène de la brasserie Carlsberg.
 Ce bâtiment long de 94 mètres et haut de 16 comporte 4 000 m2 de panneaux de verre. Il abrite des plantes tropicales et subtropicales. Comme le jardin botanique de Copenhague, dont il est la pièce maîtresse, il dépend du Muséum d'histoire naturelle du Danemark, lui-même filiale de l'université de Copenhague.
